--- a/Results/Calculation/lda2vec-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-elmo_ori-money.xlsx
@@ -435,25 +435,25 @@
         <v>125</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>26</v>
       </c>
       <c r="F2">
-        <v>0.43</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.8278145695364238</v>
       </c>
       <c r="H2">
-        <v>0.57</v>
+        <v>0.5800464037122971</v>
       </c>
       <c r="I2">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,25 +464,25 @@
         <v>166</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>51</v>
       </c>
       <c r="F3">
-        <v>0.72</v>
+        <v>0.7124463519313304</v>
       </c>
       <c r="G3">
-        <v>0.76</v>
+        <v>0.7649769585253456</v>
       </c>
       <c r="H3">
+        <v>0.7377777777777778</v>
+      </c>
+      <c r="I3">
         <v>0.74</v>
-      </c>
-      <c r="I3">
-        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0.92</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H4">
-        <v>0.88</v>
+        <v>0.8859060402684563</v>
       </c>
       <c r="I4">
         <v>0.93</v>
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>0.76</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="G5">
-        <v>0.78</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="H5">
-        <v>0.77</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="I5">
         <v>0.87</v>

--- a/Results/Calculation/lda2vec-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-elmo_ori-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>0.4464285714285715</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="G2">
-        <v>0.8278145695364238</v>
+        <v>0.7284768211920529</v>
       </c>
       <c r="H2">
-        <v>0.5800464037122971</v>
+        <v>0.7028753993610223</v>
       </c>
       <c r="I2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C3">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0.7124463519313304</v>
+        <v>0.6360759493670886</v>
       </c>
       <c r="G3">
-        <v>0.7649769585253456</v>
+        <v>0.9262672811059908</v>
       </c>
       <c r="H3">
-        <v>0.7377777777777778</v>
+        <v>0.7542213883677297</v>
       </c>
       <c r="I3">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>0.9166666666666666</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="G4">
-        <v>0.8571428571428571</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="H4">
-        <v>0.8859060402684563</v>
+        <v>0.87248322147651</v>
       </c>
       <c r="I4">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.7615384615384615</v>
+        <v>0.9175257731958762</v>
       </c>
       <c r="G5">
-        <v>0.7615384615384615</v>
+        <v>0.6846153846153846</v>
       </c>
       <c r="H5">
-        <v>0.7615384615384615</v>
+        <v>0.7841409691629956</v>
       </c>
       <c r="I5">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
